--- a/projects/test_building/input/Scenario_EndUseDemand_HotWater.xlsx
+++ b/projects/test_building/input/Scenario_EndUseDemand_HotWater.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB6A69-EB65-4D47-A8B4-5BA565EC1104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A87928-2E0F-0640-85FD-579C1CFDE7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-600" yWindow="-19180" windowWidth="22080" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28340" yWindow="-17760" windowWidth="22080" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,130 +750,130 @@
         <v>45</v>
       </c>
       <c r="F2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="G2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="H2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="I2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="J2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="K2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="L2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="M2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="N2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="O2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="P2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="Q2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="R2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="S2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="T2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="U2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="V2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="W2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="X2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="Y2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="Z2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AA2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AB2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AC2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AD2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AE2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AF2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AG2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AH2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AI2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AJ2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AK2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AL2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AM2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AN2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AO2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AP2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AQ2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AR2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AS2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AT2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AU2">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
@@ -893,130 +893,130 @@
         <v>45</v>
       </c>
       <c r="F3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="G3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="H3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="I3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="J3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="K3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="L3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="M3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="N3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="O3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="P3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="Q3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="R3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="S3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="T3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="U3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="V3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="W3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="X3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="Y3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="Z3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AA3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AB3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AC3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AD3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AE3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AF3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AG3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AH3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AI3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AJ3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AK3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AL3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AM3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AN3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AO3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AP3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AQ3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AR3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AS3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AT3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AU3">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
@@ -1036,130 +1036,130 @@
         <v>45</v>
       </c>
       <c r="F4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="G4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="H4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="I4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="J4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="K4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="L4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="M4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="N4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="O4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="P4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="Q4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="R4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="S4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="T4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="U4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="V4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="W4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="X4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="Y4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="Z4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AA4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AB4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AC4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AD4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AE4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AF4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AG4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AH4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AI4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AJ4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AK4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AL4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AM4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AN4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AO4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AP4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AQ4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AR4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AS4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AT4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AU4">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
@@ -1179,130 +1179,130 @@
         <v>45</v>
       </c>
       <c r="F5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="G5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="H5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="I5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="J5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="K5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="L5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="M5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="N5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="O5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="P5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="Q5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="R5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="S5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="T5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="U5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="V5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="W5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="X5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="Y5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="Z5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AA5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AB5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AC5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AD5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AE5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AF5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AG5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AH5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AI5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AJ5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AK5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AL5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AM5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AN5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AO5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AP5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AQ5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AR5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AS5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AT5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AU5">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
@@ -1322,130 +1322,130 @@
         <v>45</v>
       </c>
       <c r="F6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="G6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="H6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="I6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="J6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="K6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="L6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="M6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="N6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="O6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="P6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="Q6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="R6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="S6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="T6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="U6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="V6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="W6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="X6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="Y6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="Z6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AA6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AB6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AC6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AD6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AE6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AF6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AG6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AH6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AI6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AJ6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AK6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AL6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AM6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AN6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AO6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AP6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AQ6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AR6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AS6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AT6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AU6">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.2">
@@ -1465,130 +1465,130 @@
         <v>45</v>
       </c>
       <c r="F7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="G7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="H7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="I7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="J7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="K7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="L7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="M7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="N7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="O7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="P7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="Q7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="R7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="S7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="T7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="U7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="V7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="W7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="X7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="Y7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="Z7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AA7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AB7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AC7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AD7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AE7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AF7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AG7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AH7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AI7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AJ7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AK7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AL7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AM7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AN7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AO7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AP7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AQ7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AR7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AS7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AT7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AU7">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -1608,130 +1608,130 @@
         <v>45</v>
       </c>
       <c r="F8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="G8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="H8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="I8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="J8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="K8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="L8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="M8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="N8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="O8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="P8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="Q8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="R8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="S8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="T8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="U8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="V8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="W8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="X8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="Y8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="Z8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AA8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AB8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AC8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AD8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AE8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AF8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AG8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AH8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AI8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AJ8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AK8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AL8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AM8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AN8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AO8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AP8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AQ8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AR8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AS8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AT8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AU8">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
@@ -1751,130 +1751,130 @@
         <v>45</v>
       </c>
       <c r="F9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="G9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="H9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="I9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="J9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="K9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="L9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="M9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="N9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="O9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="P9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="Q9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="R9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="S9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="T9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="U9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="V9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="W9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="X9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="Y9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="Z9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AA9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AB9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AC9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AD9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AE9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AF9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AG9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AH9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AI9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AJ9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AK9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AL9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AM9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AN9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AO9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AP9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AQ9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AR9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AS9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AT9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AU9">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
@@ -1894,130 +1894,130 @@
         <v>45</v>
       </c>
       <c r="F10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="G10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="H10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="I10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="J10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="K10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="L10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="M10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="N10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="O10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="P10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="Q10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="R10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="S10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="T10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="U10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="V10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="W10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="X10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="Y10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="Z10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AA10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AB10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AC10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AD10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AE10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AF10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AG10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AH10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AI10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AJ10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AK10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AL10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AM10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AN10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AO10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AP10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AQ10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AR10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AS10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AT10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AU10">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
@@ -2037,130 +2037,130 @@
         <v>45</v>
       </c>
       <c r="F11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="G11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="H11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="I11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="J11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="K11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="L11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="M11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="N11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="O11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="P11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="Q11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="R11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="S11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="T11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="U11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="V11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="W11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="X11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="Y11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="Z11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AA11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AB11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AC11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AD11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AE11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AF11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AG11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AH11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AI11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AJ11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AK11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AL11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AM11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AN11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AO11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AP11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AQ11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AR11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AS11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AT11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AU11">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
@@ -2180,130 +2180,130 @@
         <v>45</v>
       </c>
       <c r="F12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="G12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="H12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="I12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="J12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="K12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="L12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="M12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="N12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="O12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="P12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="Q12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="R12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="S12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="T12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="U12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="V12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="W12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="X12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="Y12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="Z12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AA12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AB12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AC12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AD12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AE12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AF12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AG12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AH12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AI12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AJ12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AK12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AL12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AM12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AN12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AO12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AP12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AQ12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AR12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AS12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AT12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AU12">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.2">
@@ -2323,130 +2323,130 @@
         <v>45</v>
       </c>
       <c r="F13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="G13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="H13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="I13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="J13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="K13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="L13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="M13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="N13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="O13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="P13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="Q13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="R13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="S13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="T13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="U13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="V13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="W13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="X13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="Y13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="Z13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AA13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AB13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AC13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AD13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AE13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AF13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AG13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AH13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AI13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AJ13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AK13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AL13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AM13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AN13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AO13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AP13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AQ13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AR13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AS13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AT13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AU13">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.2">
@@ -2466,130 +2466,130 @@
         <v>45</v>
       </c>
       <c r="F14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="G14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="H14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="I14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="J14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="K14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="L14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="M14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="N14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="O14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="P14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="Q14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="R14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="S14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="T14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="U14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="V14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="W14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="X14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="Y14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="Z14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AA14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AB14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AC14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AD14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AE14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AF14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AG14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AH14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AI14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AJ14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AK14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AL14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AM14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AN14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AO14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AP14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AQ14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AR14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AS14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AT14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AU14">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
@@ -2609,130 +2609,130 @@
         <v>45</v>
       </c>
       <c r="F15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="G15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="H15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="I15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="J15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="K15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="L15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="M15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="N15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="O15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="P15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="Q15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="R15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="S15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="T15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="U15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="V15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="W15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="X15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="Y15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="Z15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AA15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AB15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AC15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AD15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AE15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AF15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AG15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AH15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AI15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AJ15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AK15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AL15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AM15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AN15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AO15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AP15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AQ15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AR15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AS15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AT15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AU15">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.2">
@@ -2752,130 +2752,130 @@
         <v>45</v>
       </c>
       <c r="F16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="G16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="H16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="I16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="J16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="K16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="L16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="M16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="N16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="O16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="P16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="Q16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="R16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="S16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="T16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="U16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="V16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="W16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="X16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="Y16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="Z16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AA16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AB16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AC16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AD16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AE16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AF16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AG16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AH16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AI16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AJ16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AK16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AL16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AM16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AN16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AO16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AP16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AQ16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AR16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AS16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AT16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AU16">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
@@ -2895,130 +2895,130 @@
         <v>45</v>
       </c>
       <c r="F17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="G17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="H17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="I17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="J17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="K17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="L17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="M17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="N17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="O17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="P17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="Q17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="R17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="S17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="T17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="U17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="V17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="W17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="X17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="Y17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="Z17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AA17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AB17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AC17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AD17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AE17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AF17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AG17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AH17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AI17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AJ17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AK17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AL17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AM17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AN17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AO17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AP17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AQ17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AR17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AS17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AT17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AU17">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
@@ -3038,130 +3038,130 @@
         <v>45</v>
       </c>
       <c r="F18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="G18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="H18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="I18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="J18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="K18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="L18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="M18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="N18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="O18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="P18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="Q18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="R18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="S18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="T18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="U18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="V18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="W18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="X18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="Y18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="Z18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AA18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AB18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AC18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AD18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AE18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AF18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AG18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AH18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AI18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AJ18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AK18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AL18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AM18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AN18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AO18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AP18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AQ18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AR18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AS18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AT18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
       <c r="AU18">
-        <v>1115.4271737314009</v>
+        <v>1113.098777729537</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
@@ -3181,130 +3181,130 @@
         <v>45</v>
       </c>
       <c r="F19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="G19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="H19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="I19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="J19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="K19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="L19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="M19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="N19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="O19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="P19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="Q19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="R19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="S19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="T19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="U19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="V19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="W19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="X19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="Y19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="Z19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AA19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AB19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AC19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AD19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AE19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AF19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AG19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AH19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AI19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AJ19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AK19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AL19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AM19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AN19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AO19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AP19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AQ19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AR19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AS19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AT19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
       <c r="AU19">
-        <v>715.73145014326008</v>
+        <v>522.43341138522237</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.2">
@@ -3324,130 +3324,130 @@
         <v>45</v>
       </c>
       <c r="F20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="G20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="H20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="I20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="J20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="K20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="L20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="M20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="N20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="O20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="P20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="Q20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="R20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="S20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="T20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="U20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="V20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="W20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="X20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="Y20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="Z20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AA20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AB20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AC20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AD20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AE20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AF20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AG20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AH20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AI20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AJ20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AK20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AL20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AM20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AN20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AO20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AP20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AQ20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AR20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AS20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AT20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
       <c r="AU20">
-        <v>32.36913061491115</v>
+        <v>402.69055273548088</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
@@ -3467,130 +3467,130 @@
         <v>45</v>
       </c>
       <c r="F21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="G21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="H21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="I21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="J21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="K21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="L21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="M21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="N21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="O21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="P21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="Q21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="R21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="S21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="T21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="U21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="V21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="W21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="X21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="Y21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="Z21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AA21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AB21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AC21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AD21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AE21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AF21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AG21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AH21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AI21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AJ21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AK21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AL21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AM21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AN21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AO21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AP21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AQ21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AR21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AS21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AT21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
       <c r="AU21">
-        <v>207.66753087255393</v>
+        <v>145.27331210060055</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
@@ -3610,130 +3610,130 @@
         <v>45</v>
       </c>
       <c r="F22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="G22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="H22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="I22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="J22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="K22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="L22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="M22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="N22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="O22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="P22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="Q22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="R22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="S22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="T22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="U22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="V22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="W22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="X22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="Y22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="Z22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AA22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AB22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AC22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AD22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AE22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AF22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AG22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AH22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AI22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AJ22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AK22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AL22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AM22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AN22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AO22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AP22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AQ22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AR22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AS22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AT22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
       <c r="AU22">
-        <v>214.45778821657868</v>
+        <v>194.828431277335</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
@@ -3753,130 +3753,130 @@
         <v>45</v>
       </c>
       <c r="F23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="G23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="H23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="I23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="J23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="K23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="L23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="M23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="N23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="O23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="P23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="Q23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="R23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="S23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="T23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="U23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="V23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="W23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="X23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="Y23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="Z23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AA23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AB23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AC23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AD23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AE23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AF23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AG23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AH23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AI23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AJ23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AK23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AL23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AM23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AN23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AO23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AP23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AQ23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AR23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AS23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AT23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
       <c r="AU23">
-        <v>256.5947993934052</v>
+        <v>345.57497314091063</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
@@ -3896,130 +3896,130 @@
         <v>45</v>
       </c>
       <c r="F24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="G24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="H24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="I24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="J24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="K24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="L24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="M24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="N24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="O24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="P24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="Q24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="R24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="S24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="T24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="U24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="V24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="W24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="X24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="Y24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="Z24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AA24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AB24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AC24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AD24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AE24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AF24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AG24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AH24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AI24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AJ24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AK24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AL24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AM24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AN24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AO24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AP24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AQ24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AR24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AS24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AT24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
       <c r="AU24">
-        <v>1779.9014114420634</v>
+        <v>1458.161505364694</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.2">
@@ -4039,130 +4039,130 @@
         <v>45</v>
       </c>
       <c r="F25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="G25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="H25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="I25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="J25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="K25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="L25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="M25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="N25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="O25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="P25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="Q25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="R25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="S25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="T25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="U25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="V25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="W25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="X25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="Y25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="Z25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AA25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AB25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AC25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AD25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AE25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AF25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AG25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AH25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AI25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AJ25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AK25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AL25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AM25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AN25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AO25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AP25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AQ25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AR25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AS25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AT25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
       <c r="AU25">
-        <v>102.86328982772191</v>
+        <v>151.83783123749095</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
@@ -4182,130 +4182,130 @@
         <v>45</v>
       </c>
       <c r="F26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="G26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="H26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="I26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="J26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="K26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="L26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="M26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="N26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="O26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="P26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="Q26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="R26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="S26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="T26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="U26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="V26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="W26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="X26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="Y26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="Z26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AA26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AB26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AC26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AD26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AE26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AF26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AG26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AH26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AI26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AJ26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AK26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AL26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AM26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AN26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AO26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AP26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AQ26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AR26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AS26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AT26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
       <c r="AU26">
-        <v>137.08270476302926</v>
+        <v>109.88519798903333</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.2">
@@ -4325,130 +4325,130 @@
         <v>45</v>
       </c>
       <c r="F27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="G27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="H27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="I27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="J27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="K27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="L27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="M27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="N27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="O27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="P27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="Q27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="R27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="S27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="T27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="U27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="V27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="W27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="X27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="Y27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="Z27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AA27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AB27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AC27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AD27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AE27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AF27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AG27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AH27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AI27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AJ27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AK27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AL27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AM27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AN27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AO27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AP27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AQ27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AR27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AS27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AT27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
       <c r="AU27">
-        <v>261.45286345775952</v>
+        <v>199.01233175590983</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
@@ -4468,130 +4468,130 @@
         <v>45</v>
       </c>
       <c r="F28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="G28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="H28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="I28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="J28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="K28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="L28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="M28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="N28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="O28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="P28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="Q28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="R28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="S28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="T28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="U28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="V28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="W28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="X28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="Y28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="Z28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AA28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AB28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AC28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AD28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AE28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AF28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AG28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AH28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AI28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AJ28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AK28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AL28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AM28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AN28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AO28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AP28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AQ28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AR28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AS28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AT28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
       <c r="AU28">
-        <v>389.45364149649907</v>
+        <v>358.84128422485463</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
@@ -4611,130 +4611,130 @@
         <v>45</v>
       </c>
       <c r="F29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="G29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="H29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="I29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="J29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="K29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="L29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="M29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="N29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="O29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="P29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="Q29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="R29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="S29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="T29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="U29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="V29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="W29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="X29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="Y29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="Z29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AA29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AB29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AC29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AD29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AE29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AF29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AG29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AH29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AI29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AJ29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AK29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AL29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AM29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AN29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AO29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AP29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AQ29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AR29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AS29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AT29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
       <c r="AU29">
-        <v>502.22003479674021</v>
+        <v>361.62362441864434</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
@@ -4754,130 +4754,130 @@
         <v>45</v>
       </c>
       <c r="F30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="G30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="H30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="I30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="J30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="K30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="L30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="M30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="N30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="O30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="P30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="Q30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="R30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="S30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="T30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="U30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="V30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="W30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="X30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="Y30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="Z30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AA30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AB30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AC30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AD30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AE30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AF30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AG30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AH30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AI30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AJ30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AK30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AL30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AM30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AN30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AO30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AP30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AQ30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AR30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AS30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AT30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
       <c r="AU30">
-        <v>159.9478823131071</v>
+        <v>118.21781030174824</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.2">
@@ -4897,130 +4897,130 @@
         <v>45</v>
       </c>
       <c r="F31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="G31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="H31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="I31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="J31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="K31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="L31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="M31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="N31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="O31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="P31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="Q31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="R31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="S31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="T31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="U31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="V31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="W31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="X31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="Y31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="Z31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AA31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AB31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AC31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AD31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AE31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AF31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AG31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AH31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AI31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AJ31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AK31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AL31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AM31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AN31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AO31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AP31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AQ31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AR31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AS31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AT31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
       <c r="AU31">
-        <v>812.37357745930694</v>
+        <v>661.79843143704193</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
@@ -5040,130 +5040,130 @@
         <v>45</v>
       </c>
       <c r="F32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="G32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="H32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="I32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="J32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="K32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="L32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="M32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="N32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="O32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="P32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="Q32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="R32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="S32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="T32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="U32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="V32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="W32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="X32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="Y32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="Z32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AA32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AB32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AC32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AD32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AE32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AF32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AG32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AH32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AI32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AJ32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AK32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AL32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AM32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AN32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AO32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AP32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AQ32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AR32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AS32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AT32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
       <c r="AU32">
-        <v>343.93468851537995</v>
+        <v>320.09524263524213</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
@@ -5183,130 +5183,130 @@
         <v>45</v>
       </c>
       <c r="F33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="G33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="H33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="I33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="J33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="K33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="L33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="M33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="N33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="O33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="P33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="Q33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="R33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="S33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="T33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="U33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="V33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="W33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="X33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="Y33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="Z33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AA33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AB33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AC33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AD33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AE33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AF33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AG33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AH33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AI33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AJ33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AK33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AL33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AM33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AN33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AO33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AP33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AQ33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AR33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AS33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AT33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
       <c r="AU33">
-        <v>279.67996172599641</v>
+        <v>213.33210851492669</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
@@ -5326,130 +5326,130 @@
         <v>45</v>
       </c>
       <c r="F34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="G34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="H34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="I34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="J34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="K34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="L34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="M34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="N34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="O34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="P34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="Q34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="R34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="S34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="T34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="U34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="V34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="W34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="X34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="Y34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="Z34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AA34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AB34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AC34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AD34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AE34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AF34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AG34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AH34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AI34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AJ34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AK34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AL34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AM34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AN34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AO34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AP34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AQ34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AR34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AS34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AT34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
       <c r="AU34">
-        <v>161.73480272800765</v>
+        <v>141.66960278536106</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.2">

--- a/projects/test_building/input/Scenario_EndUseDemand_HotWater.xlsx
+++ b/projects/test_building/input/Scenario_EndUseDemand_HotWater.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A87928-2E0F-0640-85FD-579C1CFDE7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28340" yWindow="-17760" windowWidth="22080" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28340" yWindow="-17760" windowWidth="22080" windowHeight="16880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="scenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="note" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,67 +245,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E8A209-4F66-4F42-9AFA-C7940FF714AE}" name="Table1" displayName="Table1" ref="A1:AU35" totalsRowShown="0">
-  <autoFilter ref="A1:AU35" xr:uid="{B1E8A209-4F66-4F42-9AFA-C7940FF714AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AU35" totalsRowShown="0">
+  <autoFilter ref="A1:AU35"/>
   <tableColumns count="47">
-    <tableColumn id="46" xr3:uid="{04D0C3FC-253A-8149-9BCA-392E23F4EB5D}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{1A762194-2509-D14E-BCE3-C68881F803F9}" name="id_region"/>
-    <tableColumn id="1" xr3:uid="{DC247648-1209-5C48-8179-E221E9A884AD}" name="id_sector"/>
-    <tableColumn id="3" xr3:uid="{91AA89A4-5D7F-EE46-AC73-F0847DDA5A45}" name="id_subsector"/>
-    <tableColumn id="4" xr3:uid="{EC7EA3BC-20AE-8444-B63F-7A9910559309}" name="unit"/>
-    <tableColumn id="36" xr3:uid="{A2A355E5-BB3F-D944-A0E3-721E8DE29D2B}" name="2010"/>
-    <tableColumn id="37" xr3:uid="{718E1241-818D-A643-A0D0-288E227A19A2}" name="2011"/>
-    <tableColumn id="38" xr3:uid="{9EF48801-04F3-0947-A234-6F8DDD3E6F99}" name="2012"/>
-    <tableColumn id="39" xr3:uid="{9F88ABF8-3690-7A42-B3AD-0845A1AB30BA}" name="2013"/>
-    <tableColumn id="40" xr3:uid="{5DAD1398-5F35-4B43-AE91-C612BB1806CB}" name="2014"/>
-    <tableColumn id="41" xr3:uid="{860D76D4-2802-9948-8E56-85C60F2D303A}" name="2015"/>
-    <tableColumn id="42" xr3:uid="{7B0A2553-08E5-D448-AD13-1CC74DB06DEE}" name="2016"/>
-    <tableColumn id="43" xr3:uid="{4BAD092B-C481-9B46-9D2E-A032F316C26B}" name="2017"/>
-    <tableColumn id="44" xr3:uid="{E2610C16-11B7-5441-BB49-03B348F0AA39}" name="2018"/>
-    <tableColumn id="45" xr3:uid="{770179E0-F0FF-6D4B-B929-6B1D74B38132}" name="2019"/>
-    <tableColumn id="5" xr3:uid="{7DD20F87-912C-FF4B-AE19-9F8961891E0B}" name="2020"/>
-    <tableColumn id="6" xr3:uid="{D30A0481-FD62-DF4E-B0FA-273B395A1ACD}" name="2021"/>
-    <tableColumn id="7" xr3:uid="{F05CCA1B-E343-DB40-A39B-D0C81B7F0562}" name="2022"/>
-    <tableColumn id="8" xr3:uid="{B57CE031-68A9-FF45-8CCE-1FA73A10D4FD}" name="2023"/>
-    <tableColumn id="9" xr3:uid="{3C8E665E-C0BA-9744-8829-03C1973D8748}" name="2024"/>
-    <tableColumn id="10" xr3:uid="{F81DB758-DEC6-A14B-91EC-0ED812C56B30}" name="2025"/>
-    <tableColumn id="11" xr3:uid="{6E84F14E-5301-E44E-AF2B-E8D7EE91C24F}" name="2026"/>
-    <tableColumn id="12" xr3:uid="{3666BD6F-8F0D-084B-B27C-A4703AD5C6B7}" name="2027"/>
-    <tableColumn id="13" xr3:uid="{5E5B5709-F58E-8544-B35E-4546583CCE85}" name="2028"/>
-    <tableColumn id="14" xr3:uid="{635B9BB8-43C8-4E4D-A3BE-A3C9A7AD2B68}" name="2029"/>
-    <tableColumn id="15" xr3:uid="{956FF3F6-D334-3242-B5A0-77DC3FBEA4D5}" name="2030"/>
-    <tableColumn id="16" xr3:uid="{9B0C7595-D508-B04E-865A-10B7DF5825F3}" name="2031"/>
-    <tableColumn id="17" xr3:uid="{58BC6334-E553-9E42-B5A2-C24EF0E65A59}" name="2032"/>
-    <tableColumn id="18" xr3:uid="{8459E89A-F901-9940-9ABF-EE0E8A3D63D7}" name="2033"/>
-    <tableColumn id="19" xr3:uid="{6AF822A8-FA71-D14D-B3C8-DB93FF928CA9}" name="2034"/>
-    <tableColumn id="20" xr3:uid="{7C63095C-7F7A-3B4D-B89A-0D4126D61C84}" name="2035"/>
-    <tableColumn id="21" xr3:uid="{69DACED2-28BD-1248-9EB9-79F92901BC42}" name="2036"/>
-    <tableColumn id="22" xr3:uid="{7B7106D0-E3B9-9240-8C4E-D50EE132D3D6}" name="2037"/>
-    <tableColumn id="23" xr3:uid="{35EFB8EF-CD0C-9E45-A9BA-178B4FEAF4E2}" name="2038"/>
-    <tableColumn id="24" xr3:uid="{8C28E66F-9D4C-6043-B049-81FC05823A35}" name="2039"/>
-    <tableColumn id="25" xr3:uid="{F085D507-22B9-9F4A-8135-8AB4EB649699}" name="2040"/>
-    <tableColumn id="26" xr3:uid="{9D716370-60EE-2A4C-9FE8-9D3F80099E48}" name="2041"/>
-    <tableColumn id="27" xr3:uid="{0ECDAAE5-8E1D-8B47-B0B4-18D94D71C19D}" name="2042"/>
-    <tableColumn id="28" xr3:uid="{6268246A-7374-CB4E-AFB5-4E67E066277B}" name="2043"/>
-    <tableColumn id="29" xr3:uid="{FEAAC924-E1FE-0047-A462-FFBD2368A962}" name="2044"/>
-    <tableColumn id="30" xr3:uid="{D2A72F1E-BCD2-634A-84B5-E8A4DB4665ED}" name="2045"/>
-    <tableColumn id="31" xr3:uid="{7D936D23-89C4-7E4A-A18A-516A1FCD925D}" name="2046"/>
-    <tableColumn id="32" xr3:uid="{6E6EEA03-6F59-7A49-8E18-FCE6A5FB41D6}" name="2047"/>
-    <tableColumn id="33" xr3:uid="{867F4243-4A28-984F-A97C-4C9B2544EDE5}" name="2048"/>
-    <tableColumn id="34" xr3:uid="{E144B4EA-3A0B-5244-B1F6-F3BD81586B49}" name="2049"/>
-    <tableColumn id="35" xr3:uid="{7056C8F0-E62E-2B48-A3EF-7D0859D73BA8}" name="2050"/>
-    <tableColumn id="47" xr3:uid="{1891AAAE-0821-7045-B2A8-30F916160FE1}" name="2051"/>
+    <tableColumn id="46" name="id_scenario"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="1" name="id_sector"/>
+    <tableColumn id="3" name="id_subsector"/>
+    <tableColumn id="4" name="unit"/>
+    <tableColumn id="36" name="2010"/>
+    <tableColumn id="37" name="2011"/>
+    <tableColumn id="38" name="2012"/>
+    <tableColumn id="39" name="2013"/>
+    <tableColumn id="40" name="2014"/>
+    <tableColumn id="41" name="2015"/>
+    <tableColumn id="42" name="2016"/>
+    <tableColumn id="43" name="2017"/>
+    <tableColumn id="44" name="2018"/>
+    <tableColumn id="45" name="2019"/>
+    <tableColumn id="5" name="2020"/>
+    <tableColumn id="6" name="2021"/>
+    <tableColumn id="7" name="2022"/>
+    <tableColumn id="8" name="2023"/>
+    <tableColumn id="9" name="2024"/>
+    <tableColumn id="10" name="2025"/>
+    <tableColumn id="11" name="2026"/>
+    <tableColumn id="12" name="2027"/>
+    <tableColumn id="13" name="2028"/>
+    <tableColumn id="14" name="2029"/>
+    <tableColumn id="15" name="2030"/>
+    <tableColumn id="16" name="2031"/>
+    <tableColumn id="17" name="2032"/>
+    <tableColumn id="18" name="2033"/>
+    <tableColumn id="19" name="2034"/>
+    <tableColumn id="20" name="2035"/>
+    <tableColumn id="21" name="2036"/>
+    <tableColumn id="22" name="2037"/>
+    <tableColumn id="23" name="2038"/>
+    <tableColumn id="24" name="2039"/>
+    <tableColumn id="25" name="2040"/>
+    <tableColumn id="26" name="2041"/>
+    <tableColumn id="27" name="2042"/>
+    <tableColumn id="28" name="2043"/>
+    <tableColumn id="29" name="2044"/>
+    <tableColumn id="30" name="2045"/>
+    <tableColumn id="31" name="2046"/>
+    <tableColumn id="32" name="2047"/>
+    <tableColumn id="33" name="2048"/>
+    <tableColumn id="34" name="2049"/>
+    <tableColumn id="35" name="2050"/>
+    <tableColumn id="47" name="2051"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E605BFA2-8143-FF42-AEEA-2AA1A8B4D314}" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{E605BFA2-8143-FF42-AEEA-2AA1A8B4D314}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1FD88B7C-CCC1-2444-973D-D1E8D68CC7AF}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{23D73765-4FAC-544B-9DA4-72C10C7143D4}" name="name"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -574,23 +573,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -733,7 +732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -876,7 +875,7 @@
         <v>522.43341138522237</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>402.69055273548088</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>145.27331210060055</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>194.828431277335</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>345.57497314091063</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>1458.161505364694</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>151.83783123749095</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>109.88519798903333</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>199.01233175590983</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>358.84128422485463</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>361.62362441864434</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>118.21781030174824</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>661.79843143704193</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>320.09524263524213</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>213.33210851492669</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>141.66960278536106</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>1113.098777729537</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>522.43341138522237</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>402.69055273548088</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>145.27331210060055</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>194.828431277335</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>345.57497314091063</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>1458.161505364694</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>151.83783123749095</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>109.88519798903333</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>199.01233175590983</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2</v>
       </c>
@@ -4594,7 +4593,7 @@
         <v>358.84128422485463</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>361.62362441864434</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>118.21781030174824</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>661.79843143704193</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>320.09524263524213</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>213.33210851492669</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>141.66960278536106</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5605,16 +5604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2675E2A-0B09-754C-83CA-A19276BC84D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5630,7 +5629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
